--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value439.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value439.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.531991762523824</v>
+        <v>1.849566698074341</v>
       </c>
       <c r="B1">
-        <v>1.844069124427718</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.773378372196565</v>
+        <v>2.746504545211792</v>
       </c>
       <c r="D1">
-        <v>2.113160572757579</v>
+        <v>1.276583552360535</v>
       </c>
       <c r="E1">
-        <v>1.838405830512442</v>
+        <v>0.9300251007080078</v>
       </c>
     </row>
   </sheetData>
